--- a/output/below_50/tRNA-Leu-TAG-1-1.xlsx
+++ b/output/below_50/tRNA-Leu-TAG-1-1.xlsx
@@ -12,213 +12,279 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>chr17</t>
   </si>
   <si>
-    <t>8023650</t>
-  </si>
-  <si>
-    <t>8023673</t>
+    <t>8024171</t>
+  </si>
+  <si>
+    <t>8024194</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8024174</t>
+  </si>
+  <si>
+    <t>80,80,80</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>TGGGGCAGGGTTGGGGAGCG</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>12% (33)</t>
+  </si>
+  <si>
+    <t>99% (89)</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 26, Doench 2016: 12%, Moreno-Mateos: 99%</t>
+  </si>
+  <si>
+    <t>86721331957</t>
+  </si>
+  <si>
+    <t>8024172</t>
+  </si>
+  <si>
+    <t>8024195</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>8024175</t>
+  </si>
+  <si>
+    <t>ATGGGGCAGGGTTGGGGAGC</t>
+  </si>
+  <si>
+    <t>9% (31)</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 23, Doench 2016: 9%, Moreno-Mateos: 67%</t>
+  </si>
+  <si>
+    <t>3.2252E+11</t>
+  </si>
+  <si>
+    <t>8024173</t>
+  </si>
+  <si>
+    <t>8024196</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8024176</t>
+  </si>
+  <si>
+    <t>AATGGGGCAGGGTTGGGGAG</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>16% (36)</t>
+  </si>
+  <si>
+    <t>98% (84)</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 11, Doench 2016: 16%, Moreno-Mateos: 98%</t>
+  </si>
+  <si>
+    <t>1.21758E+11</t>
+  </si>
+  <si>
+    <t>8024178</t>
+  </si>
+  <si>
+    <t>8024201</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>8024181</t>
+  </si>
+  <si>
+    <t>GTGGGAATGGGGCAGGGTTG</t>
+  </si>
+  <si>
+    <t>11% (32)</t>
+  </si>
+  <si>
+    <t>97% (82)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 29, Doench 2016: 11%, Moreno-Mateos: 97%</t>
+  </si>
+  <si>
+    <t>1.39965E+11</t>
+  </si>
+  <si>
+    <t>8024179</t>
+  </si>
+  <si>
+    <t>8024202</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>8024182</t>
+  </si>
+  <si>
+    <t>AGTGGGAATGGGGCAGGGTT</t>
+  </si>
+  <si>
+    <t>97% (80)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 33, Doench 2016: 9%, Moreno-Mateos: 97%</t>
+  </si>
+  <si>
+    <t>1.43649E+11</t>
+  </si>
+  <si>
+    <t>8024180</t>
+  </si>
+  <si>
+    <t>8024203</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>8024183</t>
+  </si>
+  <si>
+    <t>GAGTGGGAATGGGGCAGGGT</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>40% (47)</t>
+  </si>
+  <si>
+    <t>79% (60)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 17, Doench 2016: 40%, Moreno-Mateos: 79%</t>
+  </si>
+  <si>
+    <t>1.40929E+11</t>
+  </si>
+  <si>
+    <t>8024184</t>
+  </si>
+  <si>
+    <t>8024207</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>8024187</t>
+  </si>
+  <si>
+    <t>ACTAGAGTGGGAATGGGGCA</t>
+  </si>
+  <si>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>83% (63)</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 42, Doench 2016: 72%, Moreno-Mateos: 83%</t>
+  </si>
+  <si>
+    <t>2.37326E+11</t>
+  </si>
+  <si>
+    <t>8024249</t>
+  </si>
+  <si>
+    <t>8024272</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
-    <t>8023670</t>
+    <t>8024269</t>
   </si>
   <si>
     <t>150,150,150</t>
   </si>
   <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>ACCCACGCCTCCGAAGAGAC</t>
-  </si>
-  <si>
-    <t>TGG</t>
+    <t>TGGCGCAATGGATAGCGCAT</t>
   </si>
   <si>
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
   </si>
   <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>29% (35)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>63</t>
+    <t>75% (58)</t>
+  </si>
+  <si>
+    <t>69% (54)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>8023651</t>
-  </si>
-  <si>
-    <t>8023674</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>8023654</t>
-  </si>
-  <si>
-    <t>TCCAGTCTCTTCGGAGGCGT</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>94% (75)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>8023652</t>
-  </si>
-  <si>
-    <t>8023675</t>
-  </si>
-  <si>
-    <t>8023655</t>
-  </si>
-  <si>
-    <t>CTCCAGTCTCTTCGGAGGCG</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>23% (32)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>8023657</t>
-  </si>
-  <si>
-    <t>8023680</t>
-  </si>
-  <si>
-    <t>8023660</t>
-  </si>
-  <si>
-    <t>TTAGGCTCCAGTCTCTTCGG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>92% (65)</t>
-  </si>
-  <si>
-    <t>86% (65)</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>8023683</t>
-  </si>
-  <si>
-    <t>8023663</t>
-  </si>
-  <si>
-    <t>GATTTAGGCTCCAGTCTCTT</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>57% (48)</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>8023698</t>
-  </si>
-  <si>
-    <t>8023678</t>
-  </si>
-  <si>
-    <t>CGGTCTAAGGCGCTGGATTT</t>
-  </si>
-  <si>
-    <t>12% (33)</t>
-  </si>
-  <si>
-    <t>44% (42)</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>8023703</t>
-  </si>
-  <si>
-    <t>8023700</t>
-  </si>
-  <si>
-    <t>ATCCAGCGCCTTAGACCGCT</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>48% (44)</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>8023688</t>
-  </si>
-  <si>
-    <t>8023711</t>
-  </si>
-  <si>
-    <t>8023691</t>
-  </si>
-  <si>
-    <t>TAGCGTGGCCGAGCGGTCTA</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>89% (68)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>70</t>
   </si>
 </sst>
 </file>
@@ -286,10 +352,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -307,25 +373,25 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -339,10 +405,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -363,28 +429,28 @@
         <v>20</v>
       </c>
       <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -398,13 +464,13 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -419,31 +485,31 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -451,22 +517,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -478,31 +544,31 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -510,22 +576,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -537,31 +603,31 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="S5" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -569,22 +635,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -596,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -628,22 +694,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -655,31 +721,31 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -687,58 +753,58 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="R8" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="S8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
